--- a/4_ANALIZE_DATA/calibration.xlsx
+++ b/4_ANALIZE_DATA/calibration.xlsx
@@ -2471,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2781,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L26" si="4">J21*0.07477-17.571</f>
+        <f t="shared" ref="L21:L28" si="4">J21*0.07477-17.571</f>
         <v>35.141850000000005</v>
       </c>
     </row>
@@ -2905,6 +2905,19 @@
       <c r="D27">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>-17.571000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>1200</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>72.153000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/4_ANALIZE_DATA/calibration.xlsx
+++ b/4_ANALIZE_DATA/calibration.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C588F88B-30BC-4F1A-9ABB-394A52ABC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="4065" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +116,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -183,7 +192,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -312,7 +320,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -419,7 +426,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -500,7 +506,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,7 +587,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -659,7 +663,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -776,7 +779,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -883,7 +885,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -964,7 +965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2160,7 +2160,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2190,7 +2196,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2470,16 +2482,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>730</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>7.575757575757576E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>650</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>35.002039999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>570</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>30.00188</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>490</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>25.001719999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>410</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>20.001559999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>330</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>15.001399999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>250</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>9.2000000000069804E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>170</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -2723,13 +2735,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L18">
         <f>(770-440)/5</f>
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>720</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>640</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>40.001900000000006</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>560</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>35.141850000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>490</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>30.2818</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>395</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>25.047900000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>320</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>19.814000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>250</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>15.3278</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>165</v>
       </c>
@@ -2895,7 +2907,7 @@
         <v>-5.0000000001659828E-5</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>-17.571000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>1200</v>
       </c>
